--- a/misPython_doc/ARRD-MIA.xlsx
+++ b/misPython_doc/ARRD-MIA.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\Centralise_Database\misPython_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syahidhalid\Syahid_PC\Analytics - ITD\10. Python - ARRD Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841559C4-7807-4C55-904B-0121BA19560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7533ECE-2814-4D56-AAFE-CF9A98F64131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRD" sheetId="4" r:id="rId1"/>
     <sheet name="autoupload_MIS" sheetId="5" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ARRD!$A$8:$W$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">autoupload_MIS!$A$4:$U$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">autoupload_MIS!$A$4:$Q$90</definedName>
     <definedName name="Exportadora" localSheetId="1">autoupload_MIS!#REF!</definedName>
     <definedName name="Exportadora">ARRD!#REF!</definedName>
     <definedName name="Exportadora3" localSheetId="1">autoupload_MIS!#REF!</definedName>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="240">
   <si>
     <t>Report Name:</t>
   </si>
@@ -717,6 +720,57 @@
   </si>
   <si>
     <t>SAP number</t>
+  </si>
+  <si>
+    <t>Effective cost of borrowings</t>
+  </si>
+  <si>
+    <t>Interest Margin</t>
+  </si>
+  <si>
+    <t>Profit/Interest Rate</t>
+  </si>
+  <si>
+    <t>Penalty Rate</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3M LIBOR</t>
+  </si>
+  <si>
+    <t>1M LIBOR</t>
+  </si>
+  <si>
+    <t>1MKLIBOR</t>
+  </si>
+  <si>
+    <t>1MLIBOR</t>
+  </si>
+  <si>
+    <t>JUDGEMENT</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>(Blank)</t>
+  </si>
+  <si>
+    <t>COF-i</t>
+  </si>
+  <si>
+    <t>COF-i+3.00%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -730,7 +784,7 @@
     <numFmt numFmtId="166" formatCode="[$USD]\ #,##0_);[Red]\([$USD]\ #,##0\)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +869,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -877,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1070,8 +1131,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1087,8 +1189,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1379,8 +1483,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 127" xfId="13" xr:uid="{AEF4B14C-BE9A-42CD-B8A8-2937D5250BE0}"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1395,7 +1511,9 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 10" xfId="14" xr:uid="{A317B9DB-987D-484D-B8E6-EFEE30D5FC99}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="16" xr:uid="{EEE3766A-C377-404A-AE6A-5369C1BFC66C}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1416,6 +1534,489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="MIA&amp;RATE-CONV-OCT25"/>
+      <sheetName val="MIA&amp;RATE-ISLAMIC-OCT25"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>CODE</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Effective cost of borrowings</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Interest Margin</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>Profit/Interest Rate</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>Penalty Rate</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>500758</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>3</v>
+          </cell>
+          <cell r="H8">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>500512</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>6</v>
+          </cell>
+          <cell r="H9">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>100374</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F10">
+            <v>1.75</v>
+          </cell>
+          <cell r="G10">
+            <v>8.08</v>
+          </cell>
+          <cell r="H10">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>501000</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F11">
+            <v>2</v>
+          </cell>
+          <cell r="G11">
+            <v>6.52</v>
+          </cell>
+          <cell r="H11">
+            <v>6.5199999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>500274</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>3MLIBOR</v>
+          </cell>
+          <cell r="F12">
+            <v>3</v>
+          </cell>
+          <cell r="G12">
+            <v>9.19</v>
+          </cell>
+          <cell r="H12">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>500776</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F13">
+            <v>2.25</v>
+          </cell>
+          <cell r="G13">
+            <v>6.5640000000000001</v>
+          </cell>
+          <cell r="H13">
+            <v>8.5640999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>500781</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F14">
+            <v>2.25</v>
+          </cell>
+          <cell r="G14">
+            <v>6.5640000000000001</v>
+          </cell>
+          <cell r="H14">
+            <v>8.5640999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>500914</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F15">
+            <v>2.25</v>
+          </cell>
+          <cell r="G15">
+            <v>8.43</v>
+          </cell>
+          <cell r="H15">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>500557</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F16">
+            <v>3.5</v>
+          </cell>
+          <cell r="G16">
+            <v>9.69</v>
+          </cell>
+          <cell r="H16">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>500558</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F17">
+            <v>3.5</v>
+          </cell>
+          <cell r="G17">
+            <v>9.69</v>
+          </cell>
+          <cell r="H17">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>500538</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F18">
+            <v>3.5</v>
+          </cell>
+          <cell r="G18">
+            <v>9.83</v>
+          </cell>
+          <cell r="H18">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>500010</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="G19">
+            <v>2.75</v>
+          </cell>
+          <cell r="H19">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>500011</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>2.75</v>
+          </cell>
+          <cell r="H20">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>500042</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F21">
+            <v>3</v>
+          </cell>
+          <cell r="G21">
+            <v>9.39</v>
+          </cell>
+          <cell r="H21">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>500039</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>1M LIBOR</v>
+          </cell>
+          <cell r="F22">
+            <v>3</v>
+          </cell>
+          <cell r="G22">
+            <v>3</v>
+          </cell>
+          <cell r="H22">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>500265</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F23">
+            <v>3</v>
+          </cell>
+          <cell r="G23">
+            <v>9.33</v>
+          </cell>
+          <cell r="H23">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>500913</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>1M LIBOR</v>
+          </cell>
+          <cell r="F24">
+            <v>2.5</v>
+          </cell>
+          <cell r="G24">
+            <v>8.85</v>
+          </cell>
+          <cell r="H24">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>500918</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>1M LIBOR</v>
+          </cell>
+          <cell r="F25">
+            <v>2.5</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+          <cell r="H25">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>501045</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>500885</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F27">
+            <v>2</v>
+          </cell>
+          <cell r="G27">
+            <v>8.39</v>
+          </cell>
+          <cell r="H27">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>500883</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F28">
+            <v>3</v>
+          </cell>
+          <cell r="G28">
+            <v>9.35</v>
+          </cell>
+          <cell r="H28">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>500884</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>COF</v>
+          </cell>
+          <cell r="F29">
+            <v>3</v>
+          </cell>
+          <cell r="G29">
+            <v>9.35</v>
+          </cell>
+          <cell r="H29">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>501294</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>501295</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>501296</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>FIXED</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0.02</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>500980</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>1M LIBOR</v>
+          </cell>
+          <cell r="F33">
+            <v>4.2</v>
+          </cell>
+          <cell r="G33">
+            <v>10.38</v>
+          </cell>
+          <cell r="H33">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>500522</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>3M LIBOR</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5534,13 +6135,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBE202F-A2DC-40AC-A427-29877EB2E2BC}">
-  <dimension ref="A1:S185"/>
+  <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5550,22 +6151,20 @@
     <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25" style="6" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="6" customWidth="1"/>
     <col min="8" max="9" width="18.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="6" customWidth="1"/>
-    <col min="13" max="15" width="17.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="15" style="6" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="6"/>
-    <col min="21" max="21" width="16.42578125" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="6"/>
+    <col min="10" max="11" width="17.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="16.42578125" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="21" t="s">
         <v>6</v>
@@ -5576,24 +6175,24 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:19" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
@@ -5609,12 +6208,20 @@
       <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="F4" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -5630,22 +6237,30 @@
       <c r="E5" s="46">
         <v>100</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="F5" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>FIXED</v>
+      </c>
+      <c r="G5" s="47">
+        <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="107">
+        <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>2</v>
       </c>
@@ -5661,22 +6276,26 @@
       <c r="E6" s="46">
         <v>51</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="I6" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-    </row>
-    <row r="7" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>3</v>
       </c>
@@ -5692,22 +6311,30 @@
       <c r="E7" s="46">
         <v>100</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="F7" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>FIXED</v>
+      </c>
+      <c r="G7" s="47">
+        <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="107">
+        <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>4</v>
       </c>
@@ -5723,22 +6350,30 @@
       <c r="E8" s="46">
         <v>34</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="F8" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G8" s="47">
+        <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>1.75</v>
+      </c>
+      <c r="H8" s="47">
+        <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>8.08</v>
+      </c>
+      <c r="I8" s="107">
+        <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.02</v>
+      </c>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
       <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>7</v>
       </c>
@@ -5754,20 +6389,28 @@
       <c r="E9" s="46">
         <v>78</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="F9" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G9" s="47">
+        <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="47">
+        <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>6.52</v>
+      </c>
+      <c r="I9" s="107">
+        <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>6.5199999999999994E-2</v>
+      </c>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
       <c r="N9" s="48"/>
       <c r="O9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-    </row>
-    <row r="10" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>8</v>
       </c>
@@ -5783,20 +6426,24 @@
       <c r="E10" s="46">
         <v>88</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="F10" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="I10" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-    </row>
-    <row r="11" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="42">
         <v>9</v>
       </c>
@@ -5812,14 +6459,22 @@
       <c r="E11" s="46">
         <v>120</v>
       </c>
+      <c r="F11" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="47">
+        <v>0</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-    </row>
-    <row r="12" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="42">
         <v>10</v>
       </c>
@@ -5835,14 +6490,22 @@
       <c r="E12" s="46">
         <v>85</v>
       </c>
+      <c r="F12" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="47">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0</v>
+      </c>
+      <c r="I12" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>11</v>
       </c>
@@ -5858,14 +6521,22 @@
       <c r="E13" s="46">
         <v>85</v>
       </c>
+      <c r="F13" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="47">
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="I13" s="107">
+        <v>2.76E-2</v>
+      </c>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-    </row>
-    <row r="14" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>13</v>
       </c>
@@ -5881,14 +6552,22 @@
       <c r="E14" s="46">
         <v>78</v>
       </c>
+      <c r="F14" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="47">
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0</v>
+      </c>
+      <c r="I14" s="107">
+        <v>2.7400000000000001E-2</v>
+      </c>
       <c r="J14" s="58"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-    </row>
-    <row r="15" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="42">
         <v>14</v>
       </c>
@@ -5904,14 +6583,26 @@
       <c r="E15" s="46">
         <v>150</v>
       </c>
+      <c r="F15" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3MLIBOR</v>
+      </c>
+      <c r="G15" s="47">
+        <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="47">
+        <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.19</v>
+      </c>
+      <c r="I15" s="107">
+        <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-    </row>
-    <row r="16" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="42">
         <v>15</v>
       </c>
@@ -5927,14 +6618,26 @@
       <c r="E16" s="46">
         <v>79</v>
       </c>
+      <c r="F16" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>FIXED</v>
+      </c>
+      <c r="G16" s="47">
+        <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2.25</v>
+      </c>
+      <c r="H16" s="47">
+        <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="I16" s="107">
+        <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>8.5640999999999995E-2</v>
+      </c>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-    </row>
-    <row r="17" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="42">
         <v>16</v>
       </c>
@@ -5950,14 +6653,26 @@
       <c r="E17" s="46">
         <v>79</v>
       </c>
+      <c r="F17" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>FIXED</v>
+      </c>
+      <c r="G17" s="47">
+        <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2.25</v>
+      </c>
+      <c r="H17" s="47">
+        <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="I17" s="107">
+        <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>8.5640999999999995E-2</v>
+      </c>
       <c r="J17" s="53"/>
       <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-    </row>
-    <row r="18" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="42">
         <v>17</v>
       </c>
@@ -5973,14 +6688,22 @@
       <c r="E18" s="46">
         <v>129</v>
       </c>
+      <c r="F18" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="47">
+        <v>3</v>
+      </c>
+      <c r="H18" s="47">
+        <v>0</v>
+      </c>
+      <c r="I18" s="107">
+        <v>2.7799999999999998E-2</v>
+      </c>
       <c r="J18" s="53"/>
       <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-    </row>
-    <row r="19" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="42">
         <v>18</v>
       </c>
@@ -5996,14 +6719,22 @@
       <c r="E19" s="46">
         <v>22</v>
       </c>
+      <c r="F19" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="47">
+        <v>2.75</v>
+      </c>
+      <c r="H19" s="47">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="I19" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J19" s="53"/>
       <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-    </row>
-    <row r="20" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="42">
         <v>19</v>
       </c>
@@ -6019,14 +6750,22 @@
       <c r="E20" s="46">
         <v>3</v>
       </c>
+      <c r="F20" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" s="47">
+        <v>0</v>
+      </c>
+      <c r="H20" s="47">
+        <v>7</v>
+      </c>
+      <c r="I20" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-    </row>
-    <row r="21" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="42">
         <v>20</v>
       </c>
@@ -6042,14 +6781,22 @@
       <c r="E21" s="46">
         <v>100</v>
       </c>
+      <c r="F21" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="47">
+        <v>0</v>
+      </c>
+      <c r="H21" s="47">
+        <v>0</v>
+      </c>
+      <c r="I21" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-    </row>
-    <row r="22" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="42">
         <v>21</v>
       </c>
@@ -6065,14 +6812,26 @@
       <c r="E22" s="46">
         <v>129</v>
       </c>
+      <c r="F22" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G22" s="47">
+        <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3.5</v>
+      </c>
+      <c r="H22" s="47">
+        <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.69</v>
+      </c>
+      <c r="I22" s="107">
+        <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-    </row>
-    <row r="23" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="42">
         <v>22</v>
       </c>
@@ -6088,14 +6847,26 @@
       <c r="E23" s="46">
         <v>129</v>
       </c>
+      <c r="F23" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G23" s="47">
+        <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3.5</v>
+      </c>
+      <c r="H23" s="47">
+        <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.69</v>
+      </c>
+      <c r="I23" s="107">
+        <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-    </row>
-    <row r="24" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="42">
         <v>23</v>
       </c>
@@ -6111,14 +6882,22 @@
       <c r="E24" s="46">
         <v>74</v>
       </c>
+      <c r="F24" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="47">
+        <v>0</v>
+      </c>
+      <c r="H24" s="47">
+        <v>0</v>
+      </c>
+      <c r="I24" s="107">
+        <v>2.5000000000000001E-3</v>
+      </c>
       <c r="J24" s="53"/>
       <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-    </row>
-    <row r="25" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="42">
         <v>24</v>
       </c>
@@ -6134,14 +6913,26 @@
       <c r="E25" s="46">
         <v>190</v>
       </c>
+      <c r="F25" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G25" s="47">
+        <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47">
+        <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>2.75</v>
+      </c>
+      <c r="I25" s="107">
+        <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-    </row>
-    <row r="26" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="42">
         <v>25</v>
       </c>
@@ -6157,14 +6948,26 @@
       <c r="E26" s="46">
         <v>191</v>
       </c>
+      <c r="F26" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G26" s="47">
+        <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="47">
+        <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>2.75</v>
+      </c>
+      <c r="I26" s="107">
+        <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-    </row>
-    <row r="27" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="42">
         <v>26</v>
       </c>
@@ -6180,14 +6983,22 @@
       <c r="E27" s="46">
         <v>94</v>
       </c>
+      <c r="F27" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" s="47">
+        <v>0</v>
+      </c>
+      <c r="H27" s="47">
+        <v>0</v>
+      </c>
+      <c r="I27" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-    </row>
-    <row r="28" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="42">
         <v>27</v>
       </c>
@@ -6203,14 +7014,26 @@
       <c r="E28" s="46">
         <v>214</v>
       </c>
+      <c r="F28" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G28" s="47">
+        <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H28" s="47">
+        <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.39</v>
+      </c>
+      <c r="I28" s="107">
+        <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-    </row>
-    <row r="29" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="42">
         <v>28</v>
       </c>
@@ -6226,14 +7049,22 @@
       <c r="E29" s="46">
         <v>111</v>
       </c>
+      <c r="F29" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="47">
+        <v>8.91</v>
+      </c>
+      <c r="I29" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J29" s="53"/>
       <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-    </row>
-    <row r="30" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="42">
         <v>29</v>
       </c>
@@ -6249,14 +7080,26 @@
       <c r="E30" s="46">
         <v>140</v>
       </c>
+      <c r="F30" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>1M LIBOR</v>
+      </c>
+      <c r="G30" s="47">
+        <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H30" s="47">
+        <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="I30" s="107">
+        <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-    </row>
-    <row r="31" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="42">
         <v>30</v>
       </c>
@@ -6272,14 +7115,26 @@
       <c r="E31" s="46">
         <v>97</v>
       </c>
+      <c r="F31" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G31" s="47">
+        <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H31" s="47">
+        <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.33</v>
+      </c>
+      <c r="I31" s="107">
+        <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-    </row>
-    <row r="32" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="42">
         <v>31</v>
       </c>
@@ -6295,14 +7150,26 @@
       <c r="E32" s="46">
         <v>0</v>
       </c>
+      <c r="F32" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>1M LIBOR</v>
+      </c>
+      <c r="G32" s="47">
+        <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="47">
+        <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>8.85</v>
+      </c>
+      <c r="I32" s="107">
+        <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-    </row>
-    <row r="33" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="42">
         <v>32</v>
       </c>
@@ -6318,14 +7185,26 @@
       <c r="E33" s="46">
         <v>0</v>
       </c>
+      <c r="F33" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>1M LIBOR</v>
+      </c>
+      <c r="G33" s="47">
+        <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="47">
+        <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="107">
+        <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-    </row>
-    <row r="34" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="42">
         <v>33</v>
       </c>
@@ -6341,14 +7220,26 @@
       <c r="E34" s="46">
         <v>89</v>
       </c>
+      <c r="F34" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G34" s="47">
+        <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H34" s="47">
+        <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.35</v>
+      </c>
+      <c r="I34" s="107">
+        <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-    </row>
-    <row r="35" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="42">
         <v>34</v>
       </c>
@@ -6364,14 +7255,26 @@
       <c r="E35" s="46">
         <v>89</v>
       </c>
+      <c r="F35" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G35" s="47">
+        <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="H35" s="47">
+        <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.35</v>
+      </c>
+      <c r="I35" s="107">
+        <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-    </row>
-    <row r="36" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="42">
         <v>35</v>
       </c>
@@ -6387,14 +7290,26 @@
       <c r="E36" s="46">
         <v>53</v>
       </c>
+      <c r="F36" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>1M LIBOR</v>
+      </c>
+      <c r="G36" s="47">
+        <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>4.2</v>
+      </c>
+      <c r="H36" s="47">
+        <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>10.38</v>
+      </c>
+      <c r="I36" s="107">
+        <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J36" s="53"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-    </row>
-    <row r="37" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="42">
         <v>36</v>
       </c>
@@ -6410,14 +7325,26 @@
       <c r="E37" s="46">
         <v>156</v>
       </c>
+      <c r="F37" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G37" s="47">
+        <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="47">
+        <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="107">
+        <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-    </row>
-    <row r="38" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="42">
         <v>37</v>
       </c>
@@ -6433,14 +7360,26 @@
       <c r="E38" s="46">
         <v>46</v>
       </c>
+      <c r="F38" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>3M LIBOR</v>
+      </c>
+      <c r="G38" s="47">
+        <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="47">
+        <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>8.39</v>
+      </c>
+      <c r="I38" s="107">
+        <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-    </row>
-    <row r="39" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="42">
         <v>38</v>
       </c>
@@ -6456,14 +7395,26 @@
       <c r="E39" s="46">
         <v>46</v>
       </c>
+      <c r="F39" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G39" s="47">
+        <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>2.25</v>
+      </c>
+      <c r="H39" s="47">
+        <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>8.43</v>
+      </c>
+      <c r="I39" s="107">
+        <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J39" s="53"/>
       <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-    </row>
-    <row r="40" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="42">
         <v>39</v>
       </c>
@@ -6479,14 +7430,22 @@
       <c r="E40" s="46">
         <v>46</v>
       </c>
+      <c r="F40" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
+        <v>0</v>
+      </c>
+      <c r="I40" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J40" s="53"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-    </row>
-    <row r="41" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="42">
         <v>41</v>
       </c>
@@ -6502,14 +7461,26 @@
       <c r="E41" s="46">
         <v>34</v>
       </c>
+      <c r="F41" s="47">
+        <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="47">
+        <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
+        <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="107">
+        <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0</v>
+      </c>
       <c r="J41" s="53"/>
       <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-    </row>
-    <row r="42" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="42">
         <v>42</v>
       </c>
@@ -6525,14 +7496,22 @@
       <c r="E42" s="46">
         <v>0</v>
       </c>
+      <c r="F42" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="47">
+        <v>0</v>
+      </c>
+      <c r="H42" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="I42" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J42" s="53"/>
       <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-    </row>
-    <row r="43" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>43</v>
       </c>
@@ -6548,14 +7527,26 @@
       <c r="E43" s="46">
         <v>36</v>
       </c>
+      <c r="F43" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v>COF</v>
+      </c>
+      <c r="G43" s="47">
+        <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v>3.5</v>
+      </c>
+      <c r="H43" s="47">
+        <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v>9.83</v>
+      </c>
+      <c r="I43" s="107">
+        <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v>0.01</v>
+      </c>
       <c r="J43" s="60"/>
       <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-    </row>
-    <row r="44" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>44</v>
       </c>
@@ -6571,14 +7562,26 @@
       <c r="E44" s="46">
         <v>0</v>
       </c>
+      <c r="F44" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J44" s="60"/>
       <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-    </row>
-    <row r="45" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>45</v>
       </c>
@@ -6594,14 +7597,22 @@
       <c r="E45" s="46">
         <v>35</v>
       </c>
+      <c r="F45" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
+      <c r="H45" s="47">
+        <v>0</v>
+      </c>
+      <c r="I45" s="107">
+        <v>2.7400000000000001E-2</v>
+      </c>
       <c r="J45" s="60"/>
       <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-    </row>
-    <row r="46" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>46</v>
       </c>
@@ -6617,14 +7628,22 @@
       <c r="E46" s="46">
         <v>0</v>
       </c>
+      <c r="F46" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" s="107" t="s">
+        <v>228</v>
+      </c>
       <c r="J46" s="60"/>
       <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-    </row>
-    <row r="47" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>47</v>
       </c>
@@ -6640,14 +7659,22 @@
       <c r="E47" s="46">
         <v>35</v>
       </c>
+      <c r="F47" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="107">
+        <v>2.76E-2</v>
+      </c>
       <c r="J47" s="60"/>
       <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="60"/>
-      <c r="O47" s="60"/>
-    </row>
-    <row r="48" spans="1:15" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>48</v>
       </c>
@@ -6663,14 +7690,22 @@
       <c r="E48" s="46">
         <v>0</v>
       </c>
+      <c r="F48" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I48" s="107" t="s">
+        <v>228</v>
+      </c>
       <c r="J48" s="60"/>
       <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="42">
         <v>49</v>
       </c>
@@ -6686,14 +7721,22 @@
       <c r="E49" s="46">
         <v>9</v>
       </c>
+      <c r="F49" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="47">
+        <v>2</v>
+      </c>
+      <c r="H49" s="47">
+        <v>6.52</v>
+      </c>
+      <c r="I49" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J49" s="53"/>
       <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-    </row>
-    <row r="50" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="42">
         <v>50</v>
       </c>
@@ -6709,14 +7752,22 @@
       <c r="E50" s="46">
         <v>11</v>
       </c>
+      <c r="F50" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" s="47">
+        <v>0</v>
+      </c>
+      <c r="H50" s="47">
+        <v>0</v>
+      </c>
+      <c r="I50" s="107">
+        <v>2.75E-2</v>
+      </c>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-    </row>
-    <row r="51" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="42">
         <v>51</v>
       </c>
@@ -6732,14 +7783,22 @@
       <c r="E51" s="46">
         <v>8</v>
       </c>
+      <c r="F51" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="47">
+        <v>2</v>
+      </c>
+      <c r="H51" s="47">
+        <v>0</v>
+      </c>
+      <c r="I51" s="107">
+        <v>2.76E-2</v>
+      </c>
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-    </row>
-    <row r="52" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="42">
         <v>52</v>
       </c>
@@ -6755,14 +7814,22 @@
       <c r="E52" s="46">
         <v>0</v>
       </c>
+      <c r="F52" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="47">
+        <v>0</v>
+      </c>
+      <c r="H52" s="47">
+        <v>7.52</v>
+      </c>
+      <c r="I52" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J52" s="53"/>
       <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-    </row>
-    <row r="53" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="42">
         <v>53</v>
       </c>
@@ -6778,14 +7845,22 @@
       <c r="E53" s="46">
         <v>2</v>
       </c>
+      <c r="F53" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="47">
+        <v>1.75</v>
+      </c>
+      <c r="H53" s="47">
+        <v>7.27</v>
+      </c>
+      <c r="I53" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J53" s="53"/>
       <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-    </row>
-    <row r="54" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="42">
         <v>54</v>
       </c>
@@ -6801,14 +7876,22 @@
       <c r="E54" s="46">
         <v>2</v>
       </c>
+      <c r="F54" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="107">
+        <v>2.76E-2</v>
+      </c>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-    </row>
-    <row r="55" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="42">
         <v>55</v>
       </c>
@@ -6824,14 +7907,22 @@
       <c r="E55" s="46">
         <v>4</v>
       </c>
+      <c r="F55" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="47">
+        <v>0</v>
+      </c>
+      <c r="I55" s="107">
+        <v>2.76E-2</v>
+      </c>
       <c r="J55" s="53"/>
       <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-    </row>
-    <row r="56" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="42">
         <v>56</v>
       </c>
@@ -6847,14 +7938,22 @@
       <c r="E56" s="46">
         <v>1</v>
       </c>
+      <c r="F56" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="47">
+        <v>1.75</v>
+      </c>
+      <c r="H56" s="47">
+        <v>0</v>
+      </c>
+      <c r="I56" s="107">
+        <v>2.7699999999999999E-2</v>
+      </c>
       <c r="J56" s="53"/>
       <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-    </row>
-    <row r="57" spans="1:15" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:11" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A57" s="42">
         <v>57</v>
       </c>
@@ -6870,14 +7969,22 @@
       <c r="E57" s="46">
         <v>3</v>
       </c>
+      <c r="F57" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="47">
+        <v>0</v>
+      </c>
+      <c r="H57" s="47">
+        <v>4</v>
+      </c>
+      <c r="I57" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J57" s="53"/>
       <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-    </row>
-    <row r="58" spans="1:15" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:11" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A58" s="42">
         <v>58</v>
       </c>
@@ -6893,14 +8000,22 @@
       <c r="E58" s="46">
         <v>2</v>
       </c>
+      <c r="F58" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G58" s="47">
+        <v>3</v>
+      </c>
+      <c r="H58" s="47">
+        <v>7.52</v>
+      </c>
+      <c r="I58" s="107">
+        <v>0.01</v>
+      </c>
       <c r="J58" s="53"/>
       <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-    </row>
-    <row r="59" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="42">
         <v>59</v>
       </c>
@@ -6916,14 +8031,26 @@
       <c r="E59" s="46">
         <v>95</v>
       </c>
+      <c r="F59" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G59" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H59" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J59" s="53"/>
       <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-    </row>
-    <row r="60" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="42">
         <v>60</v>
       </c>
@@ -6939,14 +8066,26 @@
       <c r="E60" s="46">
         <v>109</v>
       </c>
+      <c r="F60" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H60" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I60" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J60" s="53"/>
       <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-    </row>
-    <row r="61" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="42">
         <v>61</v>
       </c>
@@ -6962,14 +8101,26 @@
       <c r="E61" s="46">
         <v>111</v>
       </c>
+      <c r="F61" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H61" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J61" s="53"/>
       <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-    </row>
-    <row r="62" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="42">
         <v>62</v>
       </c>
@@ -6985,14 +8136,26 @@
       <c r="E62" s="46">
         <v>131</v>
       </c>
+      <c r="F62" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G62" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H62" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I62" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J62" s="53"/>
       <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-    </row>
-    <row r="63" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="42">
         <v>63</v>
       </c>
@@ -7008,14 +8171,26 @@
       <c r="E63" s="46">
         <v>181</v>
       </c>
+      <c r="F63" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G63" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H63" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-    </row>
-    <row r="64" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="42">
         <v>64</v>
       </c>
@@ -7031,17 +8206,28 @@
       <c r="E64" s="46">
         <v>111</v>
       </c>
-      <c r="G64" s="94">
+      <c r="F64" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G64" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H64" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I64" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="94">
         <v>500665</v>
       </c>
-      <c r="J64" s="53"/>
       <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-    </row>
-    <row r="65" spans="1:15" s="83" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:11" s="83" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="42">
         <v>65</v>
       </c>
@@ -7057,14 +8243,26 @@
       <c r="E65" s="82">
         <v>152</v>
       </c>
+      <c r="F65" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G65" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H65" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I65" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-    </row>
-    <row r="66" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="42">
         <v>66</v>
       </c>
@@ -7080,14 +8278,26 @@
       <c r="E66" s="46">
         <v>168</v>
       </c>
+      <c r="F66" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G66" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H66" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J66" s="53"/>
       <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-    </row>
-    <row r="67" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="42">
         <v>67</v>
       </c>
@@ -7103,14 +8313,26 @@
       <c r="E67" s="46">
         <v>123</v>
       </c>
+      <c r="F67" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G67" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H67" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J67" s="53"/>
       <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-    </row>
-    <row r="68" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="42">
         <v>68</v>
       </c>
@@ -7126,14 +8348,26 @@
       <c r="E68" s="46">
         <v>199</v>
       </c>
+      <c r="F68" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G68" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H68" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J68" s="53"/>
       <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-    </row>
-    <row r="69" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="42">
         <v>69</v>
       </c>
@@ -7149,14 +8383,26 @@
       <c r="E69" s="46">
         <v>99</v>
       </c>
+      <c r="F69" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H69" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I69" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J69" s="53"/>
       <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-    </row>
-    <row r="70" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="42">
         <v>70</v>
       </c>
@@ -7172,14 +8418,26 @@
       <c r="E70" s="46">
         <v>74</v>
       </c>
+      <c r="F70" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H70" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I70" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J70" s="53"/>
       <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-    </row>
-    <row r="71" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="42">
         <v>71</v>
       </c>
@@ -7195,14 +8453,26 @@
       <c r="E71" s="46">
         <v>71</v>
       </c>
+      <c r="F71" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G71" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H71" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J71" s="53"/>
       <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-    </row>
-    <row r="72" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="42">
         <v>72</v>
       </c>
@@ -7218,14 +8488,26 @@
       <c r="E72" s="46">
         <v>96</v>
       </c>
+      <c r="F72" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G72" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H72" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J72" s="53"/>
       <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-    </row>
-    <row r="73" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="42">
         <v>73</v>
       </c>
@@ -7241,14 +8523,26 @@
       <c r="E73" s="46">
         <v>104</v>
       </c>
+      <c r="F73" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G73" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H73" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J73" s="53"/>
       <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-    </row>
-    <row r="74" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="42">
         <v>74</v>
       </c>
@@ -7264,14 +8558,26 @@
       <c r="E74" s="46">
         <v>150</v>
       </c>
+      <c r="F74" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G74" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H74" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I74" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J74" s="53"/>
       <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
-      <c r="O74" s="53"/>
-    </row>
-    <row r="75" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="42">
         <v>75</v>
       </c>
@@ -7287,14 +8593,26 @@
       <c r="E75" s="46">
         <v>131</v>
       </c>
+      <c r="F75" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G75" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H75" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J75" s="53"/>
       <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-      <c r="M75" s="53"/>
-      <c r="N75" s="53"/>
-      <c r="O75" s="53"/>
-    </row>
-    <row r="76" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="42">
         <v>76</v>
       </c>
@@ -7310,14 +8628,26 @@
       <c r="E76" s="46">
         <v>94</v>
       </c>
+      <c r="F76" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G76" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H76" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I76" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J76" s="53"/>
       <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-    </row>
-    <row r="77" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="42">
         <v>77</v>
       </c>
@@ -7333,14 +8663,26 @@
       <c r="E77" s="46">
         <v>94</v>
       </c>
+      <c r="F77" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G77" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H77" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J77" s="53"/>
       <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-    </row>
-    <row r="78" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="42">
         <v>78</v>
       </c>
@@ -7356,14 +8698,26 @@
       <c r="E78" s="46">
         <v>118</v>
       </c>
+      <c r="F78" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G78" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H78" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I78" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J78" s="53"/>
       <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-    </row>
-    <row r="79" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="42">
         <v>79</v>
       </c>
@@ -7379,14 +8733,26 @@
       <c r="E79" s="46">
         <v>113</v>
       </c>
+      <c r="F79" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G79" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H79" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I79" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J79" s="53"/>
       <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-    </row>
-    <row r="80" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="42">
         <v>80</v>
       </c>
@@ -7402,14 +8768,26 @@
       <c r="E80" s="46">
         <v>129</v>
       </c>
+      <c r="F80" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G80" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H80" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J80" s="53"/>
       <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-    </row>
-    <row r="81" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="42">
         <v>81</v>
       </c>
@@ -7425,14 +8803,26 @@
       <c r="E81" s="46">
         <v>79</v>
       </c>
+      <c r="F81" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G81" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J81" s="53"/>
       <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-    </row>
-    <row r="82" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="42">
         <v>82</v>
       </c>
@@ -7448,14 +8838,26 @@
       <c r="E82" s="46">
         <v>148</v>
       </c>
+      <c r="F82" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G82" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J82" s="53"/>
       <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
-    </row>
-    <row r="83" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="42">
         <v>83</v>
       </c>
@@ -7471,14 +8873,26 @@
       <c r="E83" s="46">
         <v>143</v>
       </c>
+      <c r="F83" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G83" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H83" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I83" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J83" s="53"/>
       <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
-    </row>
-    <row r="84" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="42">
         <v>84</v>
       </c>
@@ -7494,14 +8908,26 @@
       <c r="E84" s="46">
         <v>96</v>
       </c>
+      <c r="F84" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G84" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H84" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I84" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J84" s="53"/>
       <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-      <c r="M84" s="53"/>
-      <c r="N84" s="53"/>
-      <c r="O84" s="53"/>
-    </row>
-    <row r="85" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="42">
         <v>85</v>
       </c>
@@ -7517,14 +8943,26 @@
       <c r="E85" s="46">
         <v>57</v>
       </c>
+      <c r="F85" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G85" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H85" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I85" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J85" s="53"/>
       <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-    </row>
-    <row r="86" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="42">
         <v>86</v>
       </c>
@@ -7540,14 +8978,26 @@
       <c r="E86" s="46">
         <v>61</v>
       </c>
+      <c r="F86" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G86" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H86" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I86" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J86" s="53"/>
       <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-    </row>
-    <row r="87" spans="1:19" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:15" s="49" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="42">
         <v>87</v>
       </c>
@@ -7563,22 +9013,30 @@
       <c r="E87" s="46">
         <v>84</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
+      <c r="F87" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G87" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H87" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I87" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J87" s="48"/>
       <c r="K87" s="48"/>
       <c r="L87" s="48"/>
       <c r="M87" s="48"/>
       <c r="N87" s="48"/>
       <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
-      <c r="Q87" s="48"/>
-      <c r="R87" s="48"/>
-      <c r="S87" s="48"/>
-    </row>
-    <row r="88" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="42">
         <v>88</v>
       </c>
@@ -7594,14 +9052,26 @@
       <c r="E88" s="46">
         <v>104</v>
       </c>
+      <c r="F88" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G88" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H88" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I88" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="J88" s="53"/>
       <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-    </row>
-    <row r="89" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="42">
         <v>89</v>
       </c>
@@ -7617,14 +9087,28 @@
       <c r="E89" s="46">
         <v>104</v>
       </c>
-      <c r="J89" s="53"/>
+      <c r="F89" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G89" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H89" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I89" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="46">
+        <v>147</v>
+      </c>
       <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="53"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-    </row>
-    <row r="90" spans="1:19" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="42">
         <v>90</v>
       </c>
@@ -7640,17 +9124,26 @@
       <c r="E90" s="46">
         <v>9999</v>
       </c>
-      <c r="G90" s="46">
-        <v>147</v>
+      <c r="F90" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G90" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="H90" s="47" t="str">
+        <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I90" s="107" t="str">
+        <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
+        <v/>
       </c>
       <c r="J90" s="53"/>
       <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-      <c r="M90" s="53"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="53"/>
-    </row>
-    <row r="91" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="27"/>
       <c r="C91" s="28"/>
@@ -7658,12 +9151,8 @@
       <c r="E91" s="24"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="27"/>
       <c r="C92" s="28"/>
@@ -7671,12 +9160,8 @@
       <c r="E92" s="13"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-    </row>
-    <row r="93" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
@@ -7684,12 +9169,8 @@
       <c r="E93" s="13"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-    </row>
-    <row r="94" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="27"/>
       <c r="C94" s="28"/>
@@ -7697,12 +9178,8 @@
       <c r="E94" s="40"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-    </row>
-    <row r="95" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="27"/>
       <c r="C95" s="28"/>
@@ -7710,12 +9187,8 @@
       <c r="E95" s="13"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-    </row>
-    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -7727,12 +9200,8 @@
       <c r="I96" s="16"/>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-    </row>
-    <row r="97" spans="1:15" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="19" t="s">
         <v>186</v>
@@ -7746,12 +9215,8 @@
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-    </row>
-    <row r="98" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="19"/>
       <c r="C98" s="15"/>
@@ -7763,12 +9228,8 @@
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
       <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-    </row>
-    <row r="99" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="19"/>
       <c r="C99" s="15"/>
@@ -7776,45 +9237,29 @@
       <c r="E99" s="18"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-    </row>
-    <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="15"/>
       <c r="D100" s="17"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-    </row>
-    <row r="101" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="15"/>
       <c r="D101" s="17"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-    </row>
-    <row r="102" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B102" s="22"/>
       <c r="C102" s="15"/>
       <c r="D102" s="17"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-    </row>
-    <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B103" s="22" t="s">
         <v>187</v>
       </c>
@@ -7824,12 +9269,8 @@
       <c r="D103" s="17"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-    </row>
-    <row r="104" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B104" s="22" t="s">
         <v>189</v>
       </c>
@@ -7839,23 +9280,15 @@
       <c r="D104" s="17"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-    </row>
-    <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B105" s="22"/>
       <c r="C105" s="15"/>
       <c r="D105" s="17"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-    </row>
-    <row r="106" spans="1:15" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="17"/>
       <c r="C106" s="20"/>
@@ -7863,12 +9296,8 @@
       <c r="E106" s="11"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="9"/>
-    </row>
-    <row r="107" spans="1:15" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="19" t="s">
         <v>191</v>
@@ -7878,32 +9307,28 @@
       <c r="E107" s="11"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="9"/>
-    </row>
-    <row r="108" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="17"/>
     </row>
-    <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
       <c r="D110" s="17"/>
     </row>
-    <row r="111" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
       <c r="D111" s="17"/>
     </row>
-    <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B112" s="22" t="s">
         <v>187</v>
       </c>
@@ -7912,7 +9337,7 @@
       </c>
       <c r="D112" s="17"/>
     </row>
-    <row r="113" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B113" s="22" t="s">
         <v>189</v>
       </c>
@@ -7921,58 +9346,58 @@
       </c>
       <c r="D113" s="17"/>
     </row>
-    <row r="114" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
       <c r="D114" s="17"/>
     </row>
-    <row r="115" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
       <c r="D115" s="17"/>
     </row>
-    <row r="116" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="17"/>
     </row>
-    <row r="117" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="17"/>
     </row>
-    <row r="118" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
       <c r="D118" s="17"/>
     </row>
-    <row r="119" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
       <c r="D119" s="17"/>
     </row>
-    <row r="120" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
       <c r="D120" s="17"/>
     </row>
-    <row r="121" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B121" s="22" t="s">
         <v>187</v>
       </c>
       <c r="C121" s="88"/>
       <c r="D121" s="17"/>
     </row>
-    <row r="122" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B122" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C122" s="87"/>
       <c r="D122" s="17"/>
     </row>
-    <row r="123" spans="2:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
       <c r="D123" s="17"/>
@@ -7986,12 +9411,8 @@
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-    </row>
-    <row r="124" spans="2:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
       <c r="D124" s="17"/>
@@ -8005,12 +9426,8 @@
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-    </row>
-    <row r="125" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="3"/>
       <c r="D125" s="2"/>
@@ -8024,12 +9441,8 @@
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
-    </row>
-    <row r="126" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="3"/>
       <c r="D126" s="2"/>
@@ -8043,12 +9456,8 @@
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
-    </row>
-    <row r="127" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="3"/>
       <c r="D127" s="2"/>
@@ -8062,12 +9471,8 @@
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
-    </row>
-    <row r="128" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="3"/>
       <c r="D128" s="2"/>
@@ -8081,12 +9486,8 @@
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="6"/>
-    </row>
-    <row r="129" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
@@ -8100,12 +9501,8 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-    </row>
-    <row r="130" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="3"/>
       <c r="D130" s="2"/>
@@ -8119,12 +9516,8 @@
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
-    </row>
-    <row r="131" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="3"/>
       <c r="D131" s="2"/>
@@ -8138,12 +9531,8 @@
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-    </row>
-    <row r="132" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
@@ -8157,12 +9546,8 @@
       <c r="M132" s="6"/>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-    </row>
-    <row r="133" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="3"/>
       <c r="D133" s="2"/>
@@ -8176,12 +9561,8 @@
       <c r="M133" s="6"/>
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-    </row>
-    <row r="134" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="3"/>
       <c r="D134" s="2"/>
@@ -8195,12 +9576,8 @@
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-    </row>
-    <row r="135" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
       <c r="D135" s="2"/>
@@ -8214,12 +9591,8 @@
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-    </row>
-    <row r="136" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="3"/>
       <c r="D136" s="2"/>
@@ -8233,12 +9606,8 @@
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-    </row>
-    <row r="137" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="3"/>
       <c r="D137" s="2"/>
@@ -8252,12 +9621,8 @@
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-    </row>
-    <row r="138" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="3"/>
       <c r="D138" s="2"/>
@@ -8271,12 +9636,8 @@
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-    </row>
-    <row r="139" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="3"/>
       <c r="D139" s="2"/>
@@ -8290,12 +9651,8 @@
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-    </row>
-    <row r="140" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="3"/>
       <c r="D140" s="2"/>
@@ -8309,12 +9666,8 @@
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-    </row>
-    <row r="141" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="3"/>
       <c r="D141" s="2"/>
@@ -8328,12 +9681,8 @@
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-    </row>
-    <row r="142" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="3"/>
       <c r="D142" s="2"/>
@@ -8347,12 +9696,8 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-    </row>
-    <row r="143" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="3"/>
       <c r="D143" s="2"/>
@@ -8366,12 +9711,8 @@
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-    </row>
-    <row r="144" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="3"/>
       <c r="D144" s="2"/>
@@ -8385,12 +9726,8 @@
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-    </row>
-    <row r="145" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="3"/>
       <c r="D145" s="2"/>
@@ -8404,12 +9741,8 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-    </row>
-    <row r="146" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="3"/>
       <c r="D146" s="2"/>
@@ -8423,12 +9756,8 @@
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-    </row>
-    <row r="147" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="3"/>
       <c r="D147" s="2"/>
@@ -8442,12 +9771,8 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-    </row>
-    <row r="148" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="3"/>
       <c r="D148" s="2"/>
@@ -8461,12 +9786,8 @@
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-    </row>
-    <row r="149" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="3"/>
       <c r="D149" s="2"/>
@@ -8480,12 +9801,8 @@
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-    </row>
-    <row r="150" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
       <c r="D150" s="2"/>
@@ -8499,12 +9816,8 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-    </row>
-    <row r="151" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="3"/>
       <c r="D151" s="2"/>
@@ -8518,12 +9831,8 @@
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-    </row>
-    <row r="152" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="3"/>
       <c r="D152" s="2"/>
@@ -8537,12 +9846,8 @@
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
       <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-    </row>
-    <row r="153" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="3"/>
       <c r="D153" s="2"/>
@@ -8556,12 +9861,8 @@
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
       <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-    </row>
-    <row r="154" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="3"/>
       <c r="D154" s="2"/>
@@ -8575,12 +9876,8 @@
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
       <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-    </row>
-    <row r="155" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="3"/>
       <c r="D155" s="2"/>
@@ -8594,12 +9891,8 @@
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-    </row>
-    <row r="156" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="3"/>
       <c r="D156" s="2"/>
@@ -8613,12 +9906,8 @@
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-    </row>
-    <row r="157" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
       <c r="D157" s="2"/>
@@ -8632,12 +9921,8 @@
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-    </row>
-    <row r="158" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="3"/>
       <c r="D158" s="2"/>
@@ -8651,12 +9936,8 @@
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-    </row>
-    <row r="159" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="3"/>
       <c r="D159" s="2"/>
@@ -8670,12 +9951,8 @@
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-    </row>
-    <row r="160" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="3"/>
       <c r="D160" s="2"/>
@@ -8689,12 +9966,8 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-    </row>
-    <row r="161" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="3"/>
       <c r="D161" s="2"/>
@@ -8708,12 +9981,8 @@
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-    </row>
-    <row r="162" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="3"/>
       <c r="D162" s="2"/>
@@ -8727,12 +9996,8 @@
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-    </row>
-    <row r="163" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="3"/>
       <c r="D163" s="2"/>
@@ -8746,12 +10011,8 @@
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-    </row>
-    <row r="164" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="3"/>
       <c r="D164" s="2"/>
@@ -8765,12 +10026,8 @@
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-    </row>
-    <row r="165" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="3"/>
       <c r="D165" s="2"/>
@@ -8784,12 +10041,8 @@
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-    </row>
-    <row r="166" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="3"/>
       <c r="D166" s="2"/>
@@ -8803,12 +10056,8 @@
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-    </row>
-    <row r="167" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="3"/>
       <c r="D167" s="2"/>
@@ -8822,12 +10071,8 @@
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
       <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-    </row>
-    <row r="168" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="3"/>
       <c r="D168" s="2"/>
@@ -8841,12 +10086,8 @@
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
       <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6"/>
-    </row>
-    <row r="169" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="3"/>
       <c r="D169" s="2"/>
@@ -8860,12 +10101,8 @@
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
       <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-    </row>
-    <row r="170" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="3"/>
       <c r="D170" s="2"/>
@@ -8879,12 +10116,8 @@
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
       <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="6"/>
-      <c r="S170" s="6"/>
-    </row>
-    <row r="171" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
       <c r="D171" s="2"/>
@@ -8898,12 +10131,8 @@
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
       <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-    </row>
-    <row r="172" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
       <c r="D172" s="2"/>
@@ -8917,12 +10146,8 @@
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
       <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-    </row>
-    <row r="173" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="3"/>
       <c r="D173" s="2"/>
@@ -8936,12 +10161,8 @@
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
       <c r="O173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="6"/>
-      <c r="S173" s="6"/>
-    </row>
-    <row r="174" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="3"/>
       <c r="D174" s="2"/>
@@ -8955,12 +10176,8 @@
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
       <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-    </row>
-    <row r="175" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="3"/>
       <c r="D175" s="2"/>
@@ -8974,12 +10191,8 @@
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
       <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-    </row>
-    <row r="176" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="3"/>
       <c r="D176" s="2"/>
@@ -8993,12 +10206,8 @@
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
       <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-    </row>
-    <row r="177" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="3"/>
       <c r="D177" s="2"/>
@@ -9012,12 +10221,8 @@
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
       <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-    </row>
-    <row r="178" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="3"/>
       <c r="D178" s="2"/>
@@ -9031,12 +10236,8 @@
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
       <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-    </row>
-    <row r="179" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
       <c r="D179" s="2"/>
@@ -9050,12 +10251,8 @@
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
       <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-    </row>
-    <row r="180" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
       <c r="D180" s="2"/>
@@ -9069,12 +10266,8 @@
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
       <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-    </row>
-    <row r="181" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="3"/>
       <c r="D181" s="2"/>
@@ -9088,12 +10281,8 @@
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-    </row>
-    <row r="182" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="3"/>
       <c r="D182" s="2"/>
@@ -9107,12 +10296,8 @@
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
       <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="6"/>
-    </row>
-    <row r="183" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="3"/>
       <c r="D183" s="2"/>
@@ -9126,12 +10311,8 @@
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="6"/>
-    </row>
-    <row r="184" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="3"/>
       <c r="D184" s="2"/>
@@ -9145,12 +10326,8 @@
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-    </row>
-    <row r="185" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="3"/>
       <c r="D185" s="2"/>
@@ -9164,13 +10341,9 @@
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U90" xr:uid="{5CBE202F-A2DC-40AC-A427-29877EB2E2BC}"/>
+  <autoFilter ref="A4:Q90" xr:uid="{5CBE202F-A2DC-40AC-A427-29877EB2E2BC}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="27" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9182,26 +10355,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="69561875-a830-4c90-ba37-e8fa1ff650f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c72855-1590-4beb-9185-7b4168383c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E7CEDB8B19D7944B69D079E39AB67DE" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="200e8e8982d04011a55af736df87e26b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76c72855-1590-4beb-9185-7b4168383c13" xmlns:ns3="69561875-a830-4c90-ba37-e8fa1ff650f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e16bb3e61fda2342d0454706ba02b8b3" ns2:_="" ns3:_="">
     <xsd:import namespace="76c72855-1590-4beb-9185-7b4168383c13"/>
@@ -9456,7 +10609,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="69561875-a830-4c90-ba37-e8fa1ff650f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c72855-1590-4beb-9185-7b4168383c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63583368-1DF6-427E-8468-ADC7D1D358A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="76c72855-1590-4beb-9185-7b4168383c13"/>
+    <ds:schemaRef ds:uri="69561875-a830-4c90-ba37-e8fa1ff650f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC973AC-20CE-4556-9087-775B45E7E352}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9464,7 +10656,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385B0F08-FA21-4613-9DD3-955CE96722A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9483,25 +10675,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63583368-1DF6-427E-8468-ADC7D1D358A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="76c72855-1590-4beb-9185-7b4168383c13"/>
-    <ds:schemaRef ds:uri="69561875-a830-4c90-ba37-e8fa1ff650f8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{de3e0bd1-8a42-4fca-bd15-c152a08a9459}" enabled="1" method="Privileged" siteId="{d703bd9e-2913-4bf9-8dd7-49ce1b18bd11}" contentBits="0" removed="0"/>

--- a/misPython_doc/ARRD-MIA.xlsx
+++ b/misPython_doc/ARRD-MIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syahidhalid\Syahid_PC\Analytics - ITD\10. Python - ARRD Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00. Git Repository\Centralise_Database\misPython_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7533ECE-2814-4D56-AAFE-CF9A98F64131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D7BF68-F2C4-4E11-BAD2-1329F86654D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARRD" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="240">
   <si>
     <t>Report Name:</t>
   </si>
@@ -1192,7 +1192,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1462,11 +1462,23 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1483,17 +1495,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1548,6 +1554,22 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2"/>
+          <cell r="F2"/>
+          <cell r="G2"/>
+          <cell r="H2"/>
+        </row>
+        <row r="3">
+          <cell r="H3"/>
+        </row>
+        <row r="4">
+          <cell r="D4"/>
+          <cell r="E4"/>
+          <cell r="F4"/>
+          <cell r="G4"/>
+          <cell r="H4"/>
+        </row>
         <row r="6">
           <cell r="D6" t="str">
             <v>CODE</v>
@@ -1564,6 +1586,13 @@
           <cell r="H6" t="str">
             <v>Penalty Rate</v>
           </cell>
+        </row>
+        <row r="7">
+          <cell r="D7"/>
+          <cell r="E7"/>
+          <cell r="F7"/>
+          <cell r="G7"/>
+          <cell r="H7"/>
         </row>
         <row r="8">
           <cell r="D8">
@@ -1875,6 +1904,10 @@
           <cell r="D26">
             <v>501045</v>
           </cell>
+          <cell r="E26"/>
+          <cell r="F26"/>
+          <cell r="G26"/>
+          <cell r="H26"/>
         </row>
         <row r="27">
           <cell r="D27">
@@ -2346,11 +2379,11 @@
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
     </row>
@@ -2372,11 +2405,11 @@
       <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="21"/>
       <c r="G3" s="25"/>
     </row>
@@ -2385,11 +2418,11 @@
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="109">
         <v>2025</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="21"/>
       <c r="G4" s="26"/>
     </row>
@@ -2398,11 +2431,11 @@
       <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="109" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
@@ -2411,11 +2444,11 @@
       <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="109">
         <v>330814001</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
@@ -2427,8 +2460,8 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
     </row>
     <row r="8" spans="1:23" s="36" customFormat="1" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
@@ -5814,10 +5847,10 @@
       <c r="B109" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="102" t="s">
+      <c r="C109" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="D109" s="102"/>
+      <c r="D109" s="106"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="17"/>
@@ -5832,10 +5865,10 @@
       <c r="B110" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C110" s="103" t="s">
+      <c r="C110" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="103"/>
+      <c r="D110" s="107"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="17"/>
@@ -5885,8 +5918,8 @@
       <c r="C113" s="20"/>
       <c r="D113" s="17"/>
       <c r="E113" s="17"/>
-      <c r="F113" s="99"/>
-      <c r="G113" s="99"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="103"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="N113" s="9"/>
@@ -5932,10 +5965,10 @@
       <c r="B118" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="102" t="s">
+      <c r="C118" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="D118" s="102"/>
+      <c r="D118" s="106"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="17"/>
@@ -5944,10 +5977,10 @@
       <c r="B119" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="103" t="s">
+      <c r="C119" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="D119" s="103"/>
+      <c r="D119" s="107"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="17"/>
@@ -6014,8 +6047,8 @@
       <c r="B127" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="102"/>
-      <c r="D127" s="102"/>
+      <c r="C127" s="106"/>
+      <c r="D127" s="106"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="17"/>
@@ -6024,8 +6057,8 @@
       <c r="B128" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C128" s="101"/>
-      <c r="D128" s="101"/>
+      <c r="C128" s="105"/>
+      <c r="D128" s="105"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="17"/>
@@ -6109,6 +6142,11 @@
     <row r="191" ht="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C128:D128"/>
@@ -6117,11 +6155,6 @@
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="C119:D119"/>
     <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -6138,10 +6171,10 @@
   <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6208,16 +6241,16 @@
       <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="105" t="s">
+      <c r="H4" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="99" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6232,7 +6265,7 @@
         <v>500758</v>
       </c>
       <c r="D5" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E5" s="46">
         <v>100</v>
@@ -6249,9 +6282,8 @@
         <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="I5" s="107">
-        <f>IFERROR(VLOOKUP($C5,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
+      <c r="I5" s="101">
+        <v>1</v>
       </c>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
@@ -6271,7 +6303,7 @@
         <v>500771</v>
       </c>
       <c r="D6" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E6" s="46">
         <v>51</v>
@@ -6285,8 +6317,8 @@
       <c r="H6" s="47">
         <v>0</v>
       </c>
-      <c r="I6" s="107">
-        <v>2.75E-2</v>
+      <c r="I6" s="101">
+        <v>2.75</v>
       </c>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
@@ -6306,7 +6338,7 @@
         <v>500512</v>
       </c>
       <c r="D7" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E7" s="46">
         <v>100</v>
@@ -6323,9 +6355,8 @@
         <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>6</v>
       </c>
-      <c r="I7" s="107">
-        <f>IFERROR(VLOOKUP($C7,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
+      <c r="I7" s="101">
+        <v>1</v>
       </c>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
@@ -6345,7 +6376,7 @@
         <v>100374</v>
       </c>
       <c r="D8" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E8" s="46">
         <v>34</v>
@@ -6362,9 +6393,8 @@
         <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>8.08</v>
       </c>
-      <c r="I8" s="107">
-        <f>IFERROR(VLOOKUP($C8,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.02</v>
+      <c r="I8" s="101">
+        <v>2</v>
       </c>
       <c r="J8" s="48"/>
       <c r="K8" s="48"/>
@@ -6384,7 +6414,7 @@
         <v>501000</v>
       </c>
       <c r="D9" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E9" s="46">
         <v>78</v>
@@ -6401,9 +6431,8 @@
         <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>6.52</v>
       </c>
-      <c r="I9" s="107">
-        <f>IFERROR(VLOOKUP($C9,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>6.5199999999999994E-2</v>
+      <c r="I9" s="101">
+        <v>6.52</v>
       </c>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
@@ -6421,7 +6450,7 @@
         <v>500850</v>
       </c>
       <c r="D10" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E10" s="46">
         <v>88</v>
@@ -6435,8 +6464,8 @@
       <c r="H10" s="47">
         <v>0</v>
       </c>
-      <c r="I10" s="107">
-        <v>0.01</v>
+      <c r="I10" s="101">
+        <v>1</v>
       </c>
       <c r="J10" s="48"/>
       <c r="K10" s="48"/>
@@ -6454,7 +6483,7 @@
         <v>500676</v>
       </c>
       <c r="D11" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E11" s="46">
         <v>120</v>
@@ -6468,10 +6497,10 @@
       <c r="H11" s="47">
         <v>0</v>
       </c>
-      <c r="I11" s="107">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J11" s="53"/>
+      <c r="I11" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="J11" s="48"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6485,7 +6514,7 @@
         <v>500910</v>
       </c>
       <c r="D12" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E12" s="46">
         <v>85</v>
@@ -6499,10 +6528,10 @@
       <c r="H12" s="47">
         <v>0</v>
       </c>
-      <c r="I12" s="107">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J12" s="53"/>
+      <c r="I12" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="J12" s="48"/>
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -6516,7 +6545,7 @@
         <v>500692</v>
       </c>
       <c r="D13" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E13" s="46">
         <v>85</v>
@@ -6530,10 +6559,10 @@
       <c r="H13" s="47">
         <v>0</v>
       </c>
-      <c r="I13" s="107">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J13" s="58"/>
+      <c r="I13" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="J13" s="48"/>
       <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -6547,7 +6576,7 @@
         <v>500879</v>
       </c>
       <c r="D14" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E14" s="46">
         <v>78</v>
@@ -6561,10 +6590,10 @@
       <c r="H14" s="47">
         <v>0</v>
       </c>
-      <c r="I14" s="107">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="J14" s="58"/>
+      <c r="I14" s="101">
+        <v>2.74</v>
+      </c>
+      <c r="J14" s="48"/>
       <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6578,7 +6607,7 @@
         <v>500274</v>
       </c>
       <c r="D15" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E15" s="46">
         <v>150</v>
@@ -6595,11 +6624,10 @@
         <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.19</v>
       </c>
-      <c r="I15" s="107">
-        <f>IFERROR(VLOOKUP($C15,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J15" s="53"/>
+      <c r="I15" s="101">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48"/>
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:15" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6613,7 +6641,7 @@
         <v>500776</v>
       </c>
       <c r="D16" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E16" s="46">
         <v>79</v>
@@ -6630,11 +6658,10 @@
         <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>6.5640000000000001</v>
       </c>
-      <c r="I16" s="107">
-        <f>IFERROR(VLOOKUP($C16,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>8.5640999999999995E-2</v>
-      </c>
-      <c r="J16" s="53"/>
+      <c r="I16" s="101">
+        <v>8.5640999999999998</v>
+      </c>
+      <c r="J16" s="48"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6648,7 +6675,7 @@
         <v>500781</v>
       </c>
       <c r="D17" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E17" s="46">
         <v>79</v>
@@ -6665,11 +6692,10 @@
         <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>6.5640000000000001</v>
       </c>
-      <c r="I17" s="107">
-        <f>IFERROR(VLOOKUP($C17,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>8.5640999999999995E-2</v>
-      </c>
-      <c r="J17" s="53"/>
+      <c r="I17" s="101">
+        <v>8.5640999999999998</v>
+      </c>
+      <c r="J17" s="48"/>
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6683,7 +6709,7 @@
         <v>500705</v>
       </c>
       <c r="D18" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E18" s="46">
         <v>129</v>
@@ -6697,10 +6723,10 @@
       <c r="H18" s="47">
         <v>0</v>
       </c>
-      <c r="I18" s="107">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="J18" s="53"/>
+      <c r="I18" s="101">
+        <v>2.78</v>
+      </c>
+      <c r="J18" s="48"/>
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6714,7 +6740,7 @@
         <v>501046</v>
       </c>
       <c r="D19" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E19" s="46">
         <v>22</v>
@@ -6728,10 +6754,10 @@
       <c r="H19" s="47">
         <v>8.9700000000000006</v>
       </c>
-      <c r="I19" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J19" s="53"/>
+      <c r="I19" s="101">
+        <v>1</v>
+      </c>
+      <c r="J19" s="48"/>
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6745,7 +6771,7 @@
         <v>500722</v>
       </c>
       <c r="D20" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E20" s="46">
         <v>3</v>
@@ -6759,10 +6785,10 @@
       <c r="H20" s="47">
         <v>7</v>
       </c>
-      <c r="I20" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J20" s="53"/>
+      <c r="I20" s="101">
+        <v>1</v>
+      </c>
+      <c r="J20" s="48"/>
       <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6776,7 +6802,7 @@
         <v>500826</v>
       </c>
       <c r="D21" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E21" s="46">
         <v>100</v>
@@ -6790,10 +6816,10 @@
       <c r="H21" s="47">
         <v>0</v>
       </c>
-      <c r="I21" s="107">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J21" s="53"/>
+      <c r="I21" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="J21" s="48"/>
       <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6807,7 +6833,7 @@
         <v>500558</v>
       </c>
       <c r="D22" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E22" s="46">
         <v>129</v>
@@ -6824,11 +6850,10 @@
         <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.69</v>
       </c>
-      <c r="I22" s="107">
-        <f>IFERROR(VLOOKUP($C22,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J22" s="53"/>
+      <c r="I22" s="101">
+        <v>1</v>
+      </c>
+      <c r="J22" s="48"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6842,7 +6867,7 @@
         <v>500557</v>
       </c>
       <c r="D23" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E23" s="46">
         <v>129</v>
@@ -6859,11 +6884,10 @@
         <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.69</v>
       </c>
-      <c r="I23" s="107">
-        <f>IFERROR(VLOOKUP($C23,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J23" s="53"/>
+      <c r="I23" s="101">
+        <v>1</v>
+      </c>
+      <c r="J23" s="48"/>
       <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6877,7 +6901,7 @@
         <v>500897</v>
       </c>
       <c r="D24" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E24" s="46">
         <v>74</v>
@@ -6891,10 +6915,10 @@
       <c r="H24" s="47">
         <v>0</v>
       </c>
-      <c r="I24" s="107">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J24" s="53"/>
+      <c r="I24" s="101">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="48"/>
       <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6908,7 +6932,7 @@
         <v>500010</v>
       </c>
       <c r="D25" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E25" s="46">
         <v>190</v>
@@ -6925,11 +6949,10 @@
         <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>2.75</v>
       </c>
-      <c r="I25" s="107">
-        <f>IFERROR(VLOOKUP($C25,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J25" s="53"/>
+      <c r="I25" s="101">
+        <v>1</v>
+      </c>
+      <c r="J25" s="48"/>
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6943,7 +6966,7 @@
         <v>500011</v>
       </c>
       <c r="D26" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E26" s="46">
         <v>191</v>
@@ -6960,11 +6983,10 @@
         <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>2.75</v>
       </c>
-      <c r="I26" s="107">
-        <f>IFERROR(VLOOKUP($C26,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J26" s="53"/>
+      <c r="I26" s="101">
+        <v>1</v>
+      </c>
+      <c r="J26" s="48"/>
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6978,7 +7000,7 @@
         <v>500892</v>
       </c>
       <c r="D27" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E27" s="46">
         <v>94</v>
@@ -6992,10 +7014,10 @@
       <c r="H27" s="47">
         <v>0</v>
       </c>
-      <c r="I27" s="107">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J27" s="53"/>
+      <c r="I27" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="J27" s="48"/>
       <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7009,7 +7031,7 @@
         <v>500042</v>
       </c>
       <c r="D28" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E28" s="46">
         <v>214</v>
@@ -7026,11 +7048,10 @@
         <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.39</v>
       </c>
-      <c r="I28" s="107">
-        <f>IFERROR(VLOOKUP($C28,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J28" s="53"/>
+      <c r="I28" s="101">
+        <v>1</v>
+      </c>
+      <c r="J28" s="48"/>
       <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7044,7 +7065,7 @@
         <v>500707</v>
       </c>
       <c r="D29" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E29" s="46">
         <v>111</v>
@@ -7058,10 +7079,10 @@
       <c r="H29" s="47">
         <v>8.91</v>
       </c>
-      <c r="I29" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J29" s="53"/>
+      <c r="I29" s="101">
+        <v>1</v>
+      </c>
+      <c r="J29" s="48"/>
       <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7075,7 +7096,7 @@
         <v>500039</v>
       </c>
       <c r="D30" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E30" s="46">
         <v>140</v>
@@ -7092,11 +7113,10 @@
         <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>3</v>
       </c>
-      <c r="I30" s="107">
-        <f>IFERROR(VLOOKUP($C30,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J30" s="53"/>
+      <c r="I30" s="101">
+        <v>1</v>
+      </c>
+      <c r="J30" s="48"/>
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7110,7 +7130,7 @@
         <v>500265</v>
       </c>
       <c r="D31" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E31" s="46">
         <v>97</v>
@@ -7127,11 +7147,10 @@
         <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.33</v>
       </c>
-      <c r="I31" s="107">
-        <f>IFERROR(VLOOKUP($C31,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J31" s="53"/>
+      <c r="I31" s="101">
+        <v>1</v>
+      </c>
+      <c r="J31" s="48"/>
       <c r="K31" s="53"/>
     </row>
     <row r="32" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7145,7 +7164,7 @@
         <v>500913</v>
       </c>
       <c r="D32" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E32" s="46">
         <v>0</v>
@@ -7162,11 +7181,10 @@
         <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>8.85</v>
       </c>
-      <c r="I32" s="107">
-        <f>IFERROR(VLOOKUP($C32,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J32" s="53"/>
+      <c r="I32" s="101">
+        <v>1</v>
+      </c>
+      <c r="J32" s="48"/>
       <c r="K32" s="53"/>
     </row>
     <row r="33" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7180,7 +7198,7 @@
         <v>500918</v>
       </c>
       <c r="D33" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E33" s="46">
         <v>0</v>
@@ -7197,11 +7215,10 @@
         <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="I33" s="107">
-        <f>IFERROR(VLOOKUP($C33,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J33" s="53"/>
+      <c r="I33" s="101">
+        <v>1</v>
+      </c>
+      <c r="J33" s="48"/>
       <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7215,7 +7232,7 @@
         <v>500883</v>
       </c>
       <c r="D34" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E34" s="46">
         <v>89</v>
@@ -7232,11 +7249,10 @@
         <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.35</v>
       </c>
-      <c r="I34" s="107">
-        <f>IFERROR(VLOOKUP($C34,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J34" s="53"/>
+      <c r="I34" s="101">
+        <v>1</v>
+      </c>
+      <c r="J34" s="48"/>
       <c r="K34" s="53"/>
     </row>
     <row r="35" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7250,7 +7266,7 @@
         <v>500884</v>
       </c>
       <c r="D35" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E35" s="46">
         <v>89</v>
@@ -7267,11 +7283,10 @@
         <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.35</v>
       </c>
-      <c r="I35" s="107">
-        <f>IFERROR(VLOOKUP($C35,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J35" s="53"/>
+      <c r="I35" s="101">
+        <v>1</v>
+      </c>
+      <c r="J35" s="48"/>
       <c r="K35" s="53"/>
     </row>
     <row r="36" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7285,7 +7300,7 @@
         <v>500980</v>
       </c>
       <c r="D36" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E36" s="46">
         <v>53</v>
@@ -7302,11 +7317,10 @@
         <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>10.38</v>
       </c>
-      <c r="I36" s="107">
-        <f>IFERROR(VLOOKUP($C36,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J36" s="53"/>
+      <c r="I36" s="101">
+        <v>1</v>
+      </c>
+      <c r="J36" s="48"/>
       <c r="K36" s="53"/>
     </row>
     <row r="37" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7320,7 +7334,7 @@
         <v>500522</v>
       </c>
       <c r="D37" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E37" s="46">
         <v>156</v>
@@ -7337,11 +7351,10 @@
         <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="I37" s="107">
-        <f>IFERROR(VLOOKUP($C37,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="53"/>
+      <c r="I37" s="101">
+        <v>0</v>
+      </c>
+      <c r="J37" s="48"/>
       <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7355,7 +7368,7 @@
         <v>500885</v>
       </c>
       <c r="D38" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E38" s="46">
         <v>46</v>
@@ -7372,11 +7385,10 @@
         <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>8.39</v>
       </c>
-      <c r="I38" s="107">
-        <f>IFERROR(VLOOKUP($C38,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J38" s="53"/>
+      <c r="I38" s="101">
+        <v>1</v>
+      </c>
+      <c r="J38" s="48"/>
       <c r="K38" s="53"/>
     </row>
     <row r="39" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7390,7 +7402,7 @@
         <v>500914</v>
       </c>
       <c r="D39" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E39" s="46">
         <v>46</v>
@@ -7407,11 +7419,10 @@
         <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>8.43</v>
       </c>
-      <c r="I39" s="107">
-        <f>IFERROR(VLOOKUP($C39,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J39" s="53"/>
+      <c r="I39" s="101">
+        <v>1</v>
+      </c>
+      <c r="J39" s="48"/>
       <c r="K39" s="53"/>
     </row>
     <row r="40" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7425,7 +7436,7 @@
         <v>500947</v>
       </c>
       <c r="D40" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E40" s="46">
         <v>46</v>
@@ -7439,10 +7450,10 @@
       <c r="H40" s="47">
         <v>0</v>
       </c>
-      <c r="I40" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J40" s="53"/>
+      <c r="I40" s="101">
+        <v>1</v>
+      </c>
+      <c r="J40" s="48"/>
       <c r="K40" s="53"/>
     </row>
     <row r="41" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7456,7 +7467,7 @@
         <v>501045</v>
       </c>
       <c r="D41" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E41" s="46">
         <v>34</v>
@@ -7473,11 +7484,10 @@
         <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>0</v>
       </c>
-      <c r="I41" s="107">
-        <f>IFERROR(VLOOKUP($C41,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="53"/>
+      <c r="I41" s="101">
+        <v>0</v>
+      </c>
+      <c r="J41" s="48"/>
       <c r="K41" s="53"/>
     </row>
     <row r="42" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7491,7 +7501,7 @@
         <v>501018</v>
       </c>
       <c r="D42" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E42" s="46">
         <v>0</v>
@@ -7505,10 +7515,10 @@
       <c r="H42" s="47">
         <v>0.04</v>
       </c>
-      <c r="I42" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="53"/>
+      <c r="I42" s="101">
+        <v>1</v>
+      </c>
+      <c r="J42" s="48"/>
       <c r="K42" s="53"/>
     </row>
     <row r="43" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7522,7 +7532,7 @@
         <v>500538</v>
       </c>
       <c r="D43" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E43" s="46">
         <v>36</v>
@@ -7539,11 +7549,10 @@
         <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v>9.83</v>
       </c>
-      <c r="I43" s="107">
-        <f>IFERROR(VLOOKUP($C43,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v>0.01</v>
-      </c>
-      <c r="J43" s="60"/>
+      <c r="I43" s="101">
+        <v>1</v>
+      </c>
+      <c r="J43" s="48"/>
       <c r="K43" s="60"/>
     </row>
     <row r="44" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7557,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E44" s="46">
         <v>0</v>
@@ -7574,11 +7583,10 @@
         <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I44" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C44,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="60"/>
+      <c r="I44" s="101" t="s">
+        <v>228</v>
+      </c>
+      <c r="J44" s="48"/>
       <c r="K44" s="60"/>
     </row>
     <row r="45" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7592,7 +7600,7 @@
         <v>500887</v>
       </c>
       <c r="D45" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E45" s="46">
         <v>35</v>
@@ -7606,10 +7614,10 @@
       <c r="H45" s="47">
         <v>0</v>
       </c>
-      <c r="I45" s="107">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="J45" s="60"/>
+      <c r="I45" s="101">
+        <v>2.74</v>
+      </c>
+      <c r="J45" s="48"/>
       <c r="K45" s="60"/>
     </row>
     <row r="46" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7623,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E46" s="46">
         <v>0</v>
@@ -7637,10 +7645,10 @@
       <c r="H46" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="107" t="s">
+      <c r="I46" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="60"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="60"/>
     </row>
     <row r="47" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7654,7 +7662,7 @@
         <v>501040</v>
       </c>
       <c r="D47" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E47" s="46">
         <v>35</v>
@@ -7668,10 +7676,10 @@
       <c r="H47" s="47">
         <v>0</v>
       </c>
-      <c r="I47" s="107">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J47" s="60"/>
+      <c r="I47" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="J47" s="48"/>
       <c r="K47" s="60"/>
     </row>
     <row r="48" spans="1:11" s="59" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7685,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E48" s="46">
         <v>0</v>
@@ -7699,10 +7707,10 @@
       <c r="H48" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="I48" s="107" t="s">
+      <c r="I48" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="J48" s="60"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="60"/>
     </row>
     <row r="49" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7716,7 +7724,7 @@
         <v>501162</v>
       </c>
       <c r="D49" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E49" s="46">
         <v>9</v>
@@ -7730,10 +7738,10 @@
       <c r="H49" s="47">
         <v>6.52</v>
       </c>
-      <c r="I49" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J49" s="53"/>
+      <c r="I49" s="101">
+        <v>1</v>
+      </c>
+      <c r="J49" s="48"/>
       <c r="K49" s="53"/>
     </row>
     <row r="50" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7747,7 +7755,7 @@
         <v>501163</v>
       </c>
       <c r="D50" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E50" s="46">
         <v>11</v>
@@ -7761,10 +7769,10 @@
       <c r="H50" s="47">
         <v>0</v>
       </c>
-      <c r="I50" s="107">
-        <v>2.75E-2</v>
-      </c>
-      <c r="J50" s="53"/>
+      <c r="I50" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="J50" s="48"/>
       <c r="K50" s="53"/>
     </row>
     <row r="51" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7778,7 +7786,7 @@
         <v>501152</v>
       </c>
       <c r="D51" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E51" s="46">
         <v>8</v>
@@ -7792,10 +7800,10 @@
       <c r="H51" s="47">
         <v>0</v>
       </c>
-      <c r="I51" s="107">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J51" s="53"/>
+      <c r="I51" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="J51" s="48"/>
       <c r="K51" s="53"/>
     </row>
     <row r="52" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7809,7 +7817,7 @@
         <v>501256</v>
       </c>
       <c r="D52" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E52" s="46">
         <v>0</v>
@@ -7823,10 +7831,10 @@
       <c r="H52" s="47">
         <v>7.52</v>
       </c>
-      <c r="I52" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J52" s="53"/>
+      <c r="I52" s="101">
+        <v>1</v>
+      </c>
+      <c r="J52" s="48"/>
       <c r="K52" s="53"/>
     </row>
     <row r="53" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7840,7 +7848,7 @@
         <v>501116</v>
       </c>
       <c r="D53" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E53" s="46">
         <v>2</v>
@@ -7854,10 +7862,10 @@
       <c r="H53" s="47">
         <v>7.27</v>
       </c>
-      <c r="I53" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J53" s="53"/>
+      <c r="I53" s="101">
+        <v>1</v>
+      </c>
+      <c r="J53" s="48"/>
       <c r="K53" s="53"/>
     </row>
     <row r="54" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7871,7 +7879,7 @@
         <v>501117</v>
       </c>
       <c r="D54" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E54" s="46">
         <v>2</v>
@@ -7885,10 +7893,10 @@
       <c r="H54" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="I54" s="107">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J54" s="53"/>
+      <c r="I54" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="J54" s="48"/>
       <c r="K54" s="53"/>
     </row>
     <row r="55" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7902,7 +7910,7 @@
         <v>501216</v>
       </c>
       <c r="D55" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E55" s="46">
         <v>4</v>
@@ -7916,10 +7924,10 @@
       <c r="H55" s="47">
         <v>0</v>
       </c>
-      <c r="I55" s="107">
-        <v>2.76E-2</v>
-      </c>
-      <c r="J55" s="53"/>
+      <c r="I55" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="J55" s="48"/>
       <c r="K55" s="53"/>
     </row>
     <row r="56" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7933,7 +7941,7 @@
         <v>501223</v>
       </c>
       <c r="D56" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E56" s="46">
         <v>1</v>
@@ -7947,10 +7955,10 @@
       <c r="H56" s="47">
         <v>0</v>
       </c>
-      <c r="I56" s="107">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="J56" s="53"/>
+      <c r="I56" s="101">
+        <v>2.77</v>
+      </c>
+      <c r="J56" s="48"/>
       <c r="K56" s="53"/>
     </row>
     <row r="57" spans="1:11" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -7964,7 +7972,7 @@
         <v>501090</v>
       </c>
       <c r="D57" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E57" s="46">
         <v>3</v>
@@ -7978,10 +7986,10 @@
       <c r="H57" s="47">
         <v>4</v>
       </c>
-      <c r="I57" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J57" s="53"/>
+      <c r="I57" s="101">
+        <v>1</v>
+      </c>
+      <c r="J57" s="48"/>
       <c r="K57" s="53"/>
     </row>
     <row r="58" spans="1:11" s="52" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
@@ -7995,7 +8003,7 @@
         <v>501257</v>
       </c>
       <c r="D58" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E58" s="46">
         <v>2</v>
@@ -8009,10 +8017,10 @@
       <c r="H58" s="47">
         <v>7.52</v>
       </c>
-      <c r="I58" s="107">
-        <v>0.01</v>
-      </c>
-      <c r="J58" s="53"/>
+      <c r="I58" s="101">
+        <v>1</v>
+      </c>
+      <c r="J58" s="48"/>
       <c r="K58" s="53"/>
     </row>
     <row r="59" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -8026,7 +8034,7 @@
         <v>500900</v>
       </c>
       <c r="D59" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E59" s="46">
         <v>95</v>
@@ -8043,11 +8051,13 @@
         <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I59" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C59,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="53"/>
+      <c r="I59" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="48" t="str">
+        <f t="shared" ref="J59:J62" si="0">IFERROR(I59*100,"")</f>
+        <v/>
+      </c>
       <c r="K59" s="53"/>
     </row>
     <row r="60" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -8061,7 +8071,7 @@
         <v>500317</v>
       </c>
       <c r="D60" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E60" s="46">
         <v>109</v>
@@ -8078,11 +8088,13 @@
         <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I60" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C60,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="53"/>
+      <c r="I60" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K60" s="53"/>
     </row>
     <row r="61" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -8096,7 +8108,7 @@
         <v>500702</v>
       </c>
       <c r="D61" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E61" s="46">
         <v>111</v>
@@ -8113,11 +8125,13 @@
         <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I61" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C61,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J61" s="53"/>
+      <c r="I61" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="J61" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -8131,7 +8145,7 @@
         <v>500716</v>
       </c>
       <c r="D62" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E62" s="46">
         <v>131</v>
@@ -8148,11 +8162,13 @@
         <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I62" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C62,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="J62" s="53"/>
+      <c r="I62" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="J62" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K62" s="53"/>
     </row>
     <row r="63" spans="1:11" s="52" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -8166,7 +8182,7 @@
         <v>500051</v>
       </c>
       <c r="D63" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E63" s="46">
         <v>181</v>
@@ -8183,7 +8199,7 @@
         <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I63" s="107" t="str">
+      <c r="I63" s="100" t="str">
         <f>IFERROR(VLOOKUP($C63,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8201,7 +8217,7 @@
         <v>500665</v>
       </c>
       <c r="D64" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E64" s="46">
         <v>111</v>
@@ -8218,7 +8234,7 @@
         <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I64" s="107" t="str">
+      <c r="I64" s="100" t="str">
         <f>IFERROR(VLOOKUP($C64,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8238,7 +8254,7 @@
         <v>500508</v>
       </c>
       <c r="D65" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E65" s="82">
         <v>152</v>
@@ -8255,7 +8271,7 @@
         <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I65" s="107" t="str">
+      <c r="I65" s="100" t="str">
         <f>IFERROR(VLOOKUP($C65,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8273,7 +8289,7 @@
         <v>500186</v>
       </c>
       <c r="D66" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E66" s="46">
         <v>168</v>
@@ -8290,7 +8306,7 @@
         <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I66" s="107" t="str">
+      <c r="I66" s="100" t="str">
         <f>IFERROR(VLOOKUP($C66,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8308,7 +8324,7 @@
         <v>500742</v>
       </c>
       <c r="D67" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E67" s="46">
         <v>123</v>
@@ -8325,7 +8341,7 @@
         <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I67" s="107" t="str">
+      <c r="I67" s="100" t="str">
         <f>IFERROR(VLOOKUP($C67,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8343,7 +8359,7 @@
         <v>500197</v>
       </c>
       <c r="D68" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E68" s="46">
         <v>199</v>
@@ -8360,7 +8376,7 @@
         <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I68" s="107" t="str">
+      <c r="I68" s="100" t="str">
         <f>IFERROR(VLOOKUP($C68,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8378,7 +8394,7 @@
         <v>500806</v>
       </c>
       <c r="D69" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E69" s="46">
         <v>99</v>
@@ -8395,7 +8411,7 @@
         <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I69" s="107" t="str">
+      <c r="I69" s="100" t="str">
         <f>IFERROR(VLOOKUP($C69,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8413,7 +8429,7 @@
         <v>500857</v>
       </c>
       <c r="D70" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E70" s="46">
         <v>74</v>
@@ -8430,7 +8446,7 @@
         <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I70" s="107" t="str">
+      <c r="I70" s="100" t="str">
         <f>IFERROR(VLOOKUP($C70,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8448,7 +8464,7 @@
         <v>500773</v>
       </c>
       <c r="D71" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E71" s="46">
         <v>71</v>
@@ -8465,7 +8481,7 @@
         <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I71" s="107" t="str">
+      <c r="I71" s="100" t="str">
         <f>IFERROR(VLOOKUP($C71,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8483,7 +8499,7 @@
         <v>500888</v>
       </c>
       <c r="D72" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E72" s="46">
         <v>96</v>
@@ -8500,7 +8516,7 @@
         <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I72" s="107" t="str">
+      <c r="I72" s="100" t="str">
         <f>IFERROR(VLOOKUP($C72,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8518,7 +8534,7 @@
         <v>500838</v>
       </c>
       <c r="D73" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E73" s="46">
         <v>104</v>
@@ -8535,7 +8551,7 @@
         <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I73" s="107" t="str">
+      <c r="I73" s="100" t="str">
         <f>IFERROR(VLOOKUP($C73,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8553,7 +8569,7 @@
         <v>500560</v>
       </c>
       <c r="D74" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E74" s="46">
         <v>150</v>
@@ -8570,7 +8586,7 @@
         <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I74" s="107" t="str">
+      <c r="I74" s="100" t="str">
         <f>IFERROR(VLOOKUP($C74,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8588,7 +8604,7 @@
         <v>500297</v>
       </c>
       <c r="D75" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E75" s="46">
         <v>131</v>
@@ -8605,7 +8621,7 @@
         <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I75" s="107" t="str">
+      <c r="I75" s="100" t="str">
         <f>IFERROR(VLOOKUP($C75,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8623,7 +8639,7 @@
         <v>500962</v>
       </c>
       <c r="D76" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E76" s="46">
         <v>94</v>
@@ -8640,7 +8656,7 @@
         <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I76" s="107" t="str">
+      <c r="I76" s="100" t="str">
         <f>IFERROR(VLOOKUP($C76,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8658,7 +8674,7 @@
         <v>500515</v>
       </c>
       <c r="D77" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E77" s="46">
         <v>94</v>
@@ -8675,7 +8691,7 @@
         <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I77" s="107" t="str">
+      <c r="I77" s="100" t="str">
         <f>IFERROR(VLOOKUP($C77,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8693,7 +8709,7 @@
         <v>500529</v>
       </c>
       <c r="D78" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E78" s="46">
         <v>118</v>
@@ -8710,7 +8726,7 @@
         <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I78" s="107" t="str">
+      <c r="I78" s="100" t="str">
         <f>IFERROR(VLOOKUP($C78,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8728,7 +8744,7 @@
         <v>500546</v>
       </c>
       <c r="D79" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E79" s="46">
         <v>113</v>
@@ -8745,7 +8761,7 @@
         <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I79" s="107" t="str">
+      <c r="I79" s="100" t="str">
         <f>IFERROR(VLOOKUP($C79,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8763,7 +8779,7 @@
         <v>500644</v>
       </c>
       <c r="D80" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E80" s="46">
         <v>129</v>
@@ -8780,7 +8796,7 @@
         <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I80" s="107" t="str">
+      <c r="I80" s="100" t="str">
         <f>IFERROR(VLOOKUP($C80,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8798,7 +8814,7 @@
         <v>500613</v>
       </c>
       <c r="D81" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E81" s="46">
         <v>79</v>
@@ -8815,7 +8831,7 @@
         <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I81" s="107" t="str">
+      <c r="I81" s="100" t="str">
         <f>IFERROR(VLOOKUP($C81,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8833,7 +8849,7 @@
         <v>500576</v>
       </c>
       <c r="D82" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E82" s="46">
         <v>148</v>
@@ -8850,7 +8866,7 @@
         <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I82" s="107" t="str">
+      <c r="I82" s="100" t="str">
         <f>IFERROR(VLOOKUP($C82,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8868,7 +8884,7 @@
         <v>500631</v>
       </c>
       <c r="D83" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E83" s="46">
         <v>143</v>
@@ -8885,7 +8901,7 @@
         <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I83" s="107" t="str">
+      <c r="I83" s="100" t="str">
         <f>IFERROR(VLOOKUP($C83,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8903,7 +8919,7 @@
         <v>500922</v>
       </c>
       <c r="D84" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E84" s="46">
         <v>96</v>
@@ -8920,7 +8936,7 @@
         <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I84" s="107" t="str">
+      <c r="I84" s="100" t="str">
         <f>IFERROR(VLOOKUP($C84,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8938,7 +8954,7 @@
         <v>501025</v>
       </c>
       <c r="D85" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E85" s="46">
         <v>57</v>
@@ -8955,7 +8971,7 @@
         <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I85" s="107" t="str">
+      <c r="I85" s="100" t="str">
         <f>IFERROR(VLOOKUP($C85,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -8973,7 +8989,7 @@
         <v>500190</v>
       </c>
       <c r="D86" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E86" s="46">
         <v>61</v>
@@ -8990,7 +9006,7 @@
         <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I86" s="107" t="str">
+      <c r="I86" s="100" t="str">
         <f>IFERROR(VLOOKUP($C86,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -9008,7 +9024,7 @@
         <v>500663</v>
       </c>
       <c r="D87" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E87" s="46">
         <v>84</v>
@@ -9025,7 +9041,7 @@
         <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I87" s="107" t="str">
+      <c r="I87" s="100" t="str">
         <f>IFERROR(VLOOKUP($C87,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -9047,7 +9063,7 @@
         <v>500866</v>
       </c>
       <c r="D88" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E88" s="46">
         <v>104</v>
@@ -9064,7 +9080,7 @@
         <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I88" s="107" t="str">
+      <c r="I88" s="100" t="str">
         <f>IFERROR(VLOOKUP($C88,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -9082,7 +9098,7 @@
         <v>500852</v>
       </c>
       <c r="D89" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E89" s="46">
         <v>104</v>
@@ -9099,7 +9115,7 @@
         <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I89" s="107" t="str">
+      <c r="I89" s="100" t="str">
         <f>IFERROR(VLOOKUP($C89,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
         <v/>
       </c>
@@ -9119,7 +9135,7 @@
         <v>500577</v>
       </c>
       <c r="D90" s="45">
-        <v>45869</v>
+        <v>45930</v>
       </c>
       <c r="E90" s="46">
         <v>9999</v>
@@ -9136,9 +9152,8 @@
         <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="I90" s="107" t="str">
-        <f>IFERROR(VLOOKUP($C90,'[1]MIA&amp;RATE-CONV-OCT25'!$D:$H,5,FALSE),"")</f>
-        <v/>
+      <c r="I90" s="101">
+        <v>9</v>
       </c>
       <c r="J90" s="53"/>
       <c r="K90" s="53"/>
@@ -10355,6 +10370,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="69561875-a830-4c90-ba37-e8fa1ff650f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c72855-1590-4beb-9185-7b4168383c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E7CEDB8B19D7944B69D079E39AB67DE" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="200e8e8982d04011a55af736df87e26b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76c72855-1590-4beb-9185-7b4168383c13" xmlns:ns3="69561875-a830-4c90-ba37-e8fa1ff650f8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e16bb3e61fda2342d0454706ba02b8b3" ns2:_="" ns3:_="">
     <xsd:import namespace="76c72855-1590-4beb-9185-7b4168383c13"/>
@@ -10609,27 +10644,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385B0F08-FA21-4613-9DD3-955CE96722A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="76c72855-1590-4beb-9185-7b4168383c13"/>
+    <ds:schemaRef ds:uri="69561875-a830-4c90-ba37-e8fa1ff650f8"/>
+    <ds:schemaRef ds:uri="72cab3d5-73f9-4d5f-9e98-e18150545b53"/>
+    <ds:schemaRef ds:uri="89ee63bb-a495-4e11-94d3-47a27b62be42"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="69561875-a830-4c90-ba37-e8fa1ff650f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76c72855-1590-4beb-9185-7b4168383c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC973AC-20CE-4556-9087-775B45E7E352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63583368-1DF6-427E-8468-ADC7D1D358A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10648,33 +10690,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CC973AC-20CE-4556-9087-775B45E7E352}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385B0F08-FA21-4613-9DD3-955CE96722A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="76c72855-1590-4beb-9185-7b4168383c13"/>
-    <ds:schemaRef ds:uri="69561875-a830-4c90-ba37-e8fa1ff650f8"/>
-    <ds:schemaRef ds:uri="72cab3d5-73f9-4d5f-9e98-e18150545b53"/>
-    <ds:schemaRef ds:uri="89ee63bb-a495-4e11-94d3-47a27b62be42"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{de3e0bd1-8a42-4fca-bd15-c152a08a9459}" enabled="1" method="Privileged" siteId="{d703bd9e-2913-4bf9-8dd7-49ce1b18bd11}" contentBits="0" removed="0"/>
